--- a/_ConfigExcels/Datas/dungeon_exp.xlsx
+++ b/_ConfigExcels/Datas/dungeon_exp.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mine\Project\MiniGame_EarthDefender\_ConfigExcels\Datas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23490" windowHeight="10560"/>
+    <workbookView windowHeight="17775"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,37 +32,38 @@
     <t>##var</t>
   </si>
   <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>next_exp</t>
+  </si>
+  <si>
     <t>##type</t>
+  </si>
+  <si>
+    <t>int</t>
   </si>
   <si>
     <t>##</t>
   </si>
   <si>
-    <t>int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>level</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>等级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>升到下一级所需的经验</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>next_exp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,19 +76,147 @@
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -105,8 +229,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -129,34 +439,301 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="17" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="输出" xfId="1" builtinId="21"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -414,19 +991,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C34"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="27.125" style="2" customWidth="1"/>
@@ -439,290 +1016,445 @@
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" s="1" customFormat="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:4">
       <c r="B4" s="2">
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <f>D4</f>
+        <v>5</v>
+      </c>
+      <c r="D4" s="2">
+        <f>INT(5+(B4*5)^1.1)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
       <c r="B5" s="2">
         <v>1</v>
       </c>
       <c r="C5" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" ref="C5:C34" si="0">D5</f>
+        <v>10</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" ref="D5:D34" si="1">INT(5+(B5*5)^1.1)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
       <c r="B6" s="2">
         <v>2</v>
       </c>
       <c r="C6" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
       <c r="B7" s="2">
         <v>3</v>
       </c>
       <c r="C7" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
       <c r="B8" s="2">
         <v>4</v>
       </c>
       <c r="C8" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
       <c r="B9" s="2">
         <v>5</v>
       </c>
       <c r="C9" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
       <c r="B10" s="2">
         <v>6</v>
       </c>
       <c r="C10" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
       <c r="B11" s="2">
         <v>7</v>
       </c>
       <c r="C11" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
       <c r="B12" s="2">
         <v>8</v>
       </c>
       <c r="C12" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
       <c r="B13" s="2">
         <v>9</v>
       </c>
       <c r="C13" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
       <c r="B14" s="2">
         <v>10</v>
       </c>
       <c r="C14" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>78</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
       <c r="B15" s="2">
         <v>11</v>
       </c>
       <c r="C15" s="2">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>87</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
       <c r="B16" s="2">
         <v>12</v>
       </c>
       <c r="C16" s="2">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
       <c r="B17" s="2">
         <v>13</v>
       </c>
       <c r="C17" s="2">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>103</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="1"/>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
       <c r="B18" s="2">
         <v>14</v>
       </c>
       <c r="C18" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>112</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" si="1"/>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
       <c r="B19" s="2">
         <v>15</v>
       </c>
       <c r="C19" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
       <c r="B20" s="2">
         <v>16</v>
       </c>
       <c r="C20" s="2">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>128</v>
+      </c>
+      <c r="D20" s="2">
+        <f t="shared" si="1"/>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
       <c r="B21" s="2">
         <v>17</v>
       </c>
       <c r="C21" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>137</v>
+      </c>
+      <c r="D21" s="2">
+        <f t="shared" si="1"/>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
       <c r="B22" s="2">
         <v>18</v>
       </c>
       <c r="C22" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>146</v>
+      </c>
+      <c r="D22" s="2">
+        <f t="shared" si="1"/>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
       <c r="B23" s="2">
         <v>19</v>
       </c>
       <c r="C23" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>154</v>
+      </c>
+      <c r="D23" s="2">
+        <f t="shared" si="1"/>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
       <c r="B24" s="2">
         <v>20</v>
       </c>
       <c r="C24" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>163</v>
+      </c>
+      <c r="D24" s="2">
+        <f t="shared" si="1"/>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
       <c r="B25" s="2">
         <v>21</v>
       </c>
       <c r="C25" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>172</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" si="1"/>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
       <c r="B26" s="2">
         <v>22</v>
       </c>
       <c r="C26" s="2">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>181</v>
+      </c>
+      <c r="D26" s="2">
+        <f t="shared" si="1"/>
+        <v>181</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
       <c r="B27" s="2">
         <v>23</v>
       </c>
       <c r="C27" s="2">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>189</v>
+      </c>
+      <c r="D27" s="2">
+        <f t="shared" si="1"/>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
       <c r="B28" s="2">
         <v>24</v>
       </c>
       <c r="C28" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>198</v>
+      </c>
+      <c r="D28" s="2">
+        <f t="shared" si="1"/>
+        <v>198</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4">
       <c r="B29" s="2">
         <v>25</v>
       </c>
       <c r="C29" s="2">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>207</v>
+      </c>
+      <c r="D29" s="2">
+        <f t="shared" si="1"/>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
       <c r="B30" s="2">
         <v>26</v>
       </c>
       <c r="C30" s="2">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>216</v>
+      </c>
+      <c r="D30" s="2">
+        <f t="shared" si="1"/>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4">
       <c r="B31" s="2">
         <v>27</v>
       </c>
       <c r="C31" s="2">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>225</v>
+      </c>
+      <c r="D31" s="2">
+        <f t="shared" si="1"/>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4">
       <c r="B32" s="2">
         <v>28</v>
       </c>
       <c r="C32" s="2">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>234</v>
+      </c>
+      <c r="D32" s="2">
+        <f t="shared" si="1"/>
+        <v>234</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
       <c r="B33" s="2">
         <v>29</v>
       </c>
       <c r="C33" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>243</v>
+      </c>
+      <c r="D33" s="2">
+        <f t="shared" si="1"/>
+        <v>243</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
       <c r="B34" s="2">
         <v>30</v>
       </c>
       <c r="C34" s="2">
-        <v>62</v>
+        <f t="shared" si="0"/>
+        <v>252</v>
+      </c>
+      <c r="D34" s="2">
+        <f t="shared" si="1"/>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/_ConfigExcels/Datas/dungeon_exp.xlsx
+++ b/_ConfigExcels/Datas/dungeon_exp.xlsx
@@ -1000,7 +1000,7 @@
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="D4" sqref="D4:D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -1058,7 +1058,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="2">
-        <f>INT(5+(B4*5)^1.1)</f>
+        <f>INT(5+B4^1.5)</f>
         <v>5</v>
       </c>
     </row>
@@ -1068,11 +1068,11 @@
       </c>
       <c r="C5" s="2">
         <f t="shared" ref="C5:C34" si="0">D5</f>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D5" s="2">
-        <f t="shared" ref="D5:D34" si="1">INT(5+(B5*5)^1.1)</f>
-        <v>10</v>
+        <f t="shared" ref="D5:D34" si="1">INT(5+B5^1.5)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="2:4">
@@ -1081,11 +1081,11 @@
       </c>
       <c r="C6" s="2">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D6" s="2">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="2:4">
@@ -1094,11 +1094,11 @@
       </c>
       <c r="C7" s="2">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="2:4">
@@ -1107,11 +1107,11 @@
       </c>
       <c r="C8" s="2">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" si="1"/>
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="2:4">
@@ -1120,11 +1120,11 @@
       </c>
       <c r="C9" s="2">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" si="1"/>
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="2:4">
@@ -1133,11 +1133,11 @@
       </c>
       <c r="C10" s="2">
         <f t="shared" si="0"/>
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" si="1"/>
-        <v>47</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="2:4">
@@ -1146,11 +1146,11 @@
       </c>
       <c r="C11" s="2">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" si="1"/>
-        <v>54</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="2:4">
@@ -1159,11 +1159,11 @@
       </c>
       <c r="C12" s="2">
         <f t="shared" si="0"/>
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" si="1"/>
-        <v>62</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="2:4">
@@ -1172,11 +1172,11 @@
       </c>
       <c r="C13" s="2">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="2:4">
@@ -1185,11 +1185,11 @@
       </c>
       <c r="C14" s="2">
         <f t="shared" si="0"/>
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" si="1"/>
-        <v>78</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="2:4">
@@ -1198,11 +1198,11 @@
       </c>
       <c r="C15" s="2">
         <f t="shared" si="0"/>
-        <v>87</v>
+        <v>41</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" si="1"/>
-        <v>87</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="2:4">
@@ -1211,11 +1211,11 @@
       </c>
       <c r="C16" s="2">
         <f t="shared" si="0"/>
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" si="1"/>
-        <v>95</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="2:4">
@@ -1224,11 +1224,11 @@
       </c>
       <c r="C17" s="2">
         <f t="shared" si="0"/>
-        <v>103</v>
+        <v>51</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" si="1"/>
-        <v>103</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -1237,11 +1237,11 @@
       </c>
       <c r="C18" s="2">
         <f t="shared" si="0"/>
-        <v>112</v>
+        <v>57</v>
       </c>
       <c r="D18" s="2">
         <f t="shared" si="1"/>
-        <v>112</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="2:4">
@@ -1250,11 +1250,11 @@
       </c>
       <c r="C19" s="2">
         <f t="shared" si="0"/>
-        <v>120</v>
+        <v>63</v>
       </c>
       <c r="D19" s="2">
         <f t="shared" si="1"/>
-        <v>120</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="2:4">
@@ -1263,11 +1263,11 @@
       </c>
       <c r="C20" s="2">
         <f t="shared" si="0"/>
-        <v>128</v>
+        <v>69</v>
       </c>
       <c r="D20" s="2">
         <f t="shared" si="1"/>
-        <v>128</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="2:4">
@@ -1276,11 +1276,11 @@
       </c>
       <c r="C21" s="2">
         <f t="shared" si="0"/>
-        <v>137</v>
+        <v>75</v>
       </c>
       <c r="D21" s="2">
         <f t="shared" si="1"/>
-        <v>137</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="2:4">
@@ -1289,11 +1289,11 @@
       </c>
       <c r="C22" s="2">
         <f t="shared" si="0"/>
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="D22" s="2">
         <f t="shared" si="1"/>
-        <v>146</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="2:4">
@@ -1302,11 +1302,11 @@
       </c>
       <c r="C23" s="2">
         <f t="shared" si="0"/>
-        <v>154</v>
+        <v>87</v>
       </c>
       <c r="D23" s="2">
         <f t="shared" si="1"/>
-        <v>154</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="2:4">
@@ -1315,11 +1315,11 @@
       </c>
       <c r="C24" s="2">
         <f t="shared" si="0"/>
-        <v>163</v>
+        <v>94</v>
       </c>
       <c r="D24" s="2">
         <f t="shared" si="1"/>
-        <v>163</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="2:4">
@@ -1328,11 +1328,11 @@
       </c>
       <c r="C25" s="2">
         <f t="shared" si="0"/>
-        <v>172</v>
+        <v>101</v>
       </c>
       <c r="D25" s="2">
         <f t="shared" si="1"/>
-        <v>172</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="2:4">
@@ -1341,11 +1341,11 @@
       </c>
       <c r="C26" s="2">
         <f t="shared" si="0"/>
-        <v>181</v>
+        <v>108</v>
       </c>
       <c r="D26" s="2">
         <f t="shared" si="1"/>
-        <v>181</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="2:4">
@@ -1354,11 +1354,11 @@
       </c>
       <c r="C27" s="2">
         <f t="shared" si="0"/>
-        <v>189</v>
+        <v>115</v>
       </c>
       <c r="D27" s="2">
         <f t="shared" si="1"/>
-        <v>189</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28" spans="2:4">
@@ -1367,11 +1367,11 @@
       </c>
       <c r="C28" s="2">
         <f t="shared" si="0"/>
-        <v>198</v>
+        <v>122</v>
       </c>
       <c r="D28" s="2">
         <f t="shared" si="1"/>
-        <v>198</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="2:4">
@@ -1380,11 +1380,11 @@
       </c>
       <c r="C29" s="2">
         <f t="shared" si="0"/>
-        <v>207</v>
+        <v>130</v>
       </c>
       <c r="D29" s="2">
         <f t="shared" si="1"/>
-        <v>207</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="2:4">
@@ -1393,11 +1393,11 @@
       </c>
       <c r="C30" s="2">
         <f t="shared" si="0"/>
-        <v>216</v>
+        <v>137</v>
       </c>
       <c r="D30" s="2">
         <f t="shared" si="1"/>
-        <v>216</v>
+        <v>137</v>
       </c>
     </row>
     <row r="31" spans="2:4">
@@ -1406,11 +1406,11 @@
       </c>
       <c r="C31" s="2">
         <f t="shared" si="0"/>
-        <v>225</v>
+        <v>145</v>
       </c>
       <c r="D31" s="2">
         <f t="shared" si="1"/>
-        <v>225</v>
+        <v>145</v>
       </c>
     </row>
     <row r="32" spans="2:4">
@@ -1419,11 +1419,11 @@
       </c>
       <c r="C32" s="2">
         <f t="shared" si="0"/>
-        <v>234</v>
+        <v>153</v>
       </c>
       <c r="D32" s="2">
         <f t="shared" si="1"/>
-        <v>234</v>
+        <v>153</v>
       </c>
     </row>
     <row r="33" spans="2:4">
@@ -1432,11 +1432,11 @@
       </c>
       <c r="C33" s="2">
         <f t="shared" si="0"/>
-        <v>243</v>
+        <v>161</v>
       </c>
       <c r="D33" s="2">
         <f t="shared" si="1"/>
-        <v>243</v>
+        <v>161</v>
       </c>
     </row>
     <row r="34" spans="2:4">
@@ -1445,11 +1445,11 @@
       </c>
       <c r="C34" s="2">
         <f t="shared" si="0"/>
-        <v>252</v>
+        <v>169</v>
       </c>
       <c r="D34" s="2">
         <f t="shared" si="1"/>
-        <v>252</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
